--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -537,10 +537,10 @@
         <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J2">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.424769333333333</v>
+        <v>3.508776333333333</v>
       </c>
       <c r="N2">
-        <v>4.274308</v>
+        <v>10.526329</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.850636686451555</v>
+        <v>4.557558936103556</v>
       </c>
       <c r="R2">
-        <v>16.655730178064</v>
+        <v>41.01803042493201</v>
       </c>
       <c r="S2">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="T2">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5059576666666666</v>
+        <v>0.3319853333333333</v>
       </c>
       <c r="H3">
-        <v>1.517873</v>
+        <v>0.995956</v>
       </c>
       <c r="I3">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="J3">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.424769333333333</v>
+        <v>3.508776333333333</v>
       </c>
       <c r="N3">
-        <v>4.274308</v>
+        <v>10.526329</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.7208729674315554</v>
+        <v>1.164862280613778</v>
       </c>
       <c r="R3">
-        <v>6.487856706883998</v>
+        <v>10.483760525524</v>
       </c>
       <c r="S3">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="T3">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
     </row>
   </sheetData>
